--- a/REGULAR/OJT/NEW DONE/VILLAPANDO JENITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/VILLAPANDO JENITA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23AED7E-6EC1-4FCF-A07D-1FE425BCCB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8230A0-1172-4A55-A495-64D1595C34CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="308">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1666,7 +1666,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K510" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1995,12 +1995,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K510"/>
+  <dimension ref="A2:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2100" topLeftCell="A444" activePane="bottomLeft"/>
+      <pane ySplit="2100" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D460" sqref="D460"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,7 +2167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.66379999999998</v>
+        <v>166.66380000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6629,7 +6629,7 @@
       <c r="D205" s="39"/>
       <c r="E205" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.66379999999998</v>
+        <v>166.66380000000001</v>
       </c>
       <c r="F205" s="20"/>
       <c r="G205" s="13" t="str">
@@ -6676,7 +6676,7 @@
       <c r="D207" s="39"/>
       <c r="E207" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.66379999999998</v>
+        <v>166.66380000000001</v>
       </c>
       <c r="F207" s="20"/>
       <c r="G207" s="13" t="str">
@@ -6700,7 +6700,7 @@
       <c r="D208" s="39"/>
       <c r="E208" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>166.66379999999998</v>
+        <v>166.66380000000001</v>
       </c>
       <c r="F208" s="20"/>
       <c r="G208" s="13" t="str">
@@ -7850,11 +7850,11 @@
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262" s="34"/>
       <c r="F262" s="20"/>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
-        <f t="shared" ref="A287:A357" si="2">EDATE(A286,1)</f>
+        <f t="shared" ref="A287:A358" si="2">EDATE(A286,1)</f>
         <v>40269</v>
       </c>
       <c r="B287" s="20" t="s">
@@ -8978,66 +8978,63 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B310" s="20"/>
-      <c r="C310" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D310" s="39"/>
-      <c r="E310" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A310" s="23"/>
+      <c r="B310" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C310" s="13"/>
+      <c r="D310" s="39">
+        <v>5</v>
+      </c>
+      <c r="E310" s="34"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H310" s="39"/>
-      <c r="I310" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I310" s="34"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="23">
+      <c r="A311" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B311" s="20"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D311" s="39"/>
+      <c r="E311" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F311" s="20"/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H311" s="39"/>
+      <c r="I311" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J311" s="11"/>
+      <c r="K311" s="20"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>40909</v>
       </c>
-      <c r="B311" s="20" t="s">
+      <c r="B312" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C311" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D311" s="39">
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D312" s="39">
         <v>4</v>
       </c>
-      <c r="E311" s="34"/>
-      <c r="F311" s="20"/>
-      <c r="G311" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H311" s="39"/>
-      <c r="I311" s="34"/>
-      <c r="J311" s="11"/>
-      <c r="K311" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="23">
-        <f t="shared" si="2"/>
-        <v>40940</v>
-      </c>
-      <c r="B312" s="20"/>
-      <c r="C312" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D312" s="39"/>
       <c r="E312" s="34"/>
       <c r="F312" s="20"/>
       <c r="G312" s="13">
@@ -9047,12 +9044,14 @@
       <c r="H312" s="39"/>
       <c r="I312" s="34"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="20"/>
+      <c r="K312" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f t="shared" si="2"/>
-        <v>40969</v>
+        <v>40940</v>
       </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13">
@@ -9073,7 +9072,7 @@
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" si="2"/>
-        <v>41000</v>
+        <v>40969</v>
       </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -9094,7 +9093,7 @@
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <f t="shared" si="2"/>
-        <v>41030</v>
+        <v>41000</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13">
@@ -9115,7 +9114,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f t="shared" si="2"/>
-        <v>41061</v>
+        <v>41030</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -9136,7 +9135,7 @@
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f t="shared" si="2"/>
-        <v>41091</v>
+        <v>41061</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13">
@@ -9157,7 +9156,7 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="2"/>
-        <v>41122</v>
+        <v>41091</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13">
@@ -9178,7 +9177,7 @@
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" si="2"/>
-        <v>41153</v>
+        <v>41122</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13">
@@ -9199,7 +9198,7 @@
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f t="shared" si="2"/>
-        <v>41183</v>
+        <v>41153</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13">
@@ -9220,7 +9219,7 @@
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <f t="shared" si="2"/>
-        <v>41214</v>
+        <v>41183</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13">
@@ -9241,17 +9240,13 @@
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <f t="shared" si="2"/>
-        <v>41244</v>
-      </c>
-      <c r="B322" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>41214</v>
+      </c>
+      <c r="B322" s="20"/>
       <c r="C322" s="13">
         <v>1.25</v>
       </c>
-      <c r="D322" s="39">
-        <v>5</v>
-      </c>
+      <c r="D322" s="39"/>
       <c r="E322" s="34"/>
       <c r="F322" s="20"/>
       <c r="G322" s="13">
@@ -9264,54 +9259,58 @@
       <c r="K322" s="20"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B323" s="20"/>
+      <c r="A323" s="23">
+        <f t="shared" si="2"/>
+        <v>41244</v>
+      </c>
+      <c r="B323" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C323" s="13">
         <v>1.25</v>
       </c>
-      <c r="D323" s="39"/>
-      <c r="E323" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D323" s="39">
+        <v>1</v>
+      </c>
+      <c r="E323" s="34"/>
       <c r="F323" s="20"/>
       <c r="G323" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H323" s="39"/>
-      <c r="I323" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I323" s="34"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="23">
-        <f>EDATE(A322,1)</f>
-        <v>41275</v>
+      <c r="A324" s="48" t="s">
+        <v>73</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13">
         <v>1.25</v>
       </c>
       <c r="D324" s="39"/>
-      <c r="E324" s="34"/>
+      <c r="E324" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F324" s="20"/>
       <c r="G324" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H324" s="39"/>
-      <c r="I324" s="34"/>
+      <c r="I324" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
-        <f>EDATE(A324,1)</f>
-        <v>41306</v>
+        <f>EDATE(A323,1)</f>
+        <v>41275</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13">
@@ -9331,18 +9330,14 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
-        <f t="shared" si="2"/>
-        <v>41334</v>
-      </c>
-      <c r="B326" s="20" t="s">
-        <v>96</v>
-      </c>
+        <f>EDATE(A325,1)</f>
+        <v>41306</v>
+      </c>
+      <c r="B326" s="20"/>
       <c r="C326" s="13">
         <v>1.25</v>
       </c>
-      <c r="D326" s="39">
-        <v>0.27500000000000002</v>
-      </c>
+      <c r="D326" s="39"/>
       <c r="E326" s="34"/>
       <c r="F326" s="20"/>
       <c r="G326" s="13">
@@ -9357,13 +9352,17 @@
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f t="shared" si="2"/>
-        <v>41365</v>
-      </c>
-      <c r="B327" s="20"/>
+        <v>41334</v>
+      </c>
+      <c r="B327" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C327" s="13">
         <v>1.25</v>
       </c>
-      <c r="D327" s="39"/>
+      <c r="D327" s="39">
+        <v>0.27500000000000002</v>
+      </c>
       <c r="E327" s="34"/>
       <c r="F327" s="20"/>
       <c r="G327" s="13">
@@ -9378,7 +9377,7 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <f t="shared" si="2"/>
-        <v>41395</v>
+        <v>41365</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -9399,17 +9398,13 @@
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f t="shared" si="2"/>
-        <v>41426</v>
-      </c>
-      <c r="B329" s="20" t="s">
-        <v>95</v>
-      </c>
+        <v>41395</v>
+      </c>
+      <c r="B329" s="20"/>
       <c r="C329" s="13">
         <v>1.25</v>
       </c>
-      <c r="D329" s="39">
-        <v>0.15</v>
-      </c>
+      <c r="D329" s="39"/>
       <c r="E329" s="34"/>
       <c r="F329" s="20"/>
       <c r="G329" s="13">
@@ -9424,16 +9419,16 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f t="shared" si="2"/>
-        <v>41456</v>
+        <v>41426</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
       </c>
       <c r="D330" s="39">
-        <v>0.63700000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E330" s="34"/>
       <c r="F330" s="20"/>
@@ -9449,16 +9444,16 @@
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f t="shared" si="2"/>
-        <v>41487</v>
+        <v>41456</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
       <c r="D331" s="39">
-        <v>0.115</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="E331" s="34"/>
       <c r="F331" s="20"/>
@@ -9474,13 +9469,17 @@
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f t="shared" si="2"/>
-        <v>41518</v>
-      </c>
-      <c r="B332" s="20"/>
+        <v>41487</v>
+      </c>
+      <c r="B332" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C332" s="13">
         <v>1.25</v>
       </c>
-      <c r="D332" s="39"/>
+      <c r="D332" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E332" s="34"/>
       <c r="F332" s="20"/>
       <c r="G332" s="13">
@@ -9495,17 +9494,13 @@
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f t="shared" si="2"/>
-        <v>41548</v>
-      </c>
-      <c r="B333" s="20" t="s">
-        <v>93</v>
-      </c>
+        <v>41518</v>
+      </c>
+      <c r="B333" s="20"/>
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
-      <c r="D333" s="39">
-        <v>8.3000000000000004E-2</v>
-      </c>
+      <c r="D333" s="39"/>
       <c r="E333" s="34"/>
       <c r="F333" s="20"/>
       <c r="G333" s="13">
@@ -9520,13 +9515,17 @@
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f t="shared" si="2"/>
-        <v>41579</v>
-      </c>
-      <c r="B334" s="20"/>
+        <v>41548</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C334" s="13">
         <v>1.25</v>
       </c>
-      <c r="D334" s="39"/>
+      <c r="D334" s="39">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="E334" s="34"/>
       <c r="F334" s="20"/>
       <c r="G334" s="13">
@@ -9541,17 +9540,13 @@
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f t="shared" si="2"/>
-        <v>41609</v>
-      </c>
-      <c r="B335" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>41579</v>
+      </c>
+      <c r="B335" s="20"/>
       <c r="C335" s="13">
         <v>1.25</v>
       </c>
-      <c r="D335" s="39">
-        <v>5</v>
-      </c>
+      <c r="D335" s="39"/>
       <c r="E335" s="34"/>
       <c r="F335" s="20"/>
       <c r="G335" s="13">
@@ -9564,54 +9559,58 @@
       <c r="K335" s="20"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B336" s="20"/>
+      <c r="A336" s="23">
+        <f t="shared" si="2"/>
+        <v>41609</v>
+      </c>
+      <c r="B336" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C336" s="13">
         <v>1.25</v>
       </c>
-      <c r="D336" s="39"/>
-      <c r="E336" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D336" s="39">
+        <v>5</v>
+      </c>
+      <c r="E336" s="34"/>
       <c r="F336" s="20"/>
       <c r="G336" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H336" s="39"/>
-      <c r="I336" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I336" s="34"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="23">
-        <f>EDATE(A335,1)</f>
-        <v>41640</v>
+      <c r="A337" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
         <v>1.25</v>
       </c>
       <c r="D337" s="39"/>
-      <c r="E337" s="34"/>
+      <c r="E337" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F337" s="20"/>
       <c r="G337" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H337" s="39"/>
-      <c r="I337" s="34"/>
+      <c r="I337" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
-        <f t="shared" si="2"/>
-        <v>41671</v>
+        <f>EDATE(A336,1)</f>
+        <v>41640</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -9632,7 +9631,7 @@
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f t="shared" si="2"/>
-        <v>41699</v>
+        <v>41671</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="13">
@@ -9653,17 +9652,13 @@
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f t="shared" si="2"/>
-        <v>41730</v>
-      </c>
-      <c r="B340" s="20" t="s">
-        <v>90</v>
-      </c>
+        <v>41699</v>
+      </c>
+      <c r="B340" s="20"/>
       <c r="C340" s="13">
         <v>1.25</v>
       </c>
-      <c r="D340" s="39">
-        <v>2.3290000000000002</v>
-      </c>
+      <c r="D340" s="39"/>
       <c r="E340" s="34"/>
       <c r="F340" s="20"/>
       <c r="G340" s="13">
@@ -9678,13 +9673,17 @@
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f t="shared" si="2"/>
-        <v>41760</v>
-      </c>
-      <c r="B341" s="20"/>
+        <v>41730</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="C341" s="13">
         <v>1.25</v>
       </c>
-      <c r="D341" s="39"/>
+      <c r="D341" s="39">
+        <v>2.3290000000000002</v>
+      </c>
       <c r="E341" s="34"/>
       <c r="F341" s="20"/>
       <c r="G341" s="13">
@@ -9699,7 +9698,7 @@
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f t="shared" si="2"/>
-        <v>41791</v>
+        <v>41760</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="13">
@@ -9720,17 +9719,13 @@
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f t="shared" si="2"/>
-        <v>41821</v>
-      </c>
-      <c r="B343" s="20" t="s">
-        <v>91</v>
-      </c>
+        <v>41791</v>
+      </c>
+      <c r="B343" s="20"/>
       <c r="C343" s="13">
         <v>1.25</v>
       </c>
-      <c r="D343" s="39">
-        <v>1.496</v>
-      </c>
+      <c r="D343" s="39"/>
       <c r="E343" s="34"/>
       <c r="F343" s="20"/>
       <c r="G343" s="13">
@@ -9745,13 +9740,17 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
-        <v>41852</v>
-      </c>
-      <c r="B344" s="20"/>
+        <v>41821</v>
+      </c>
+      <c r="B344" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C344" s="13">
         <v>1.25</v>
       </c>
-      <c r="D344" s="39"/>
+      <c r="D344" s="39">
+        <v>1.496</v>
+      </c>
       <c r="E344" s="34"/>
       <c r="F344" s="20"/>
       <c r="G344" s="13">
@@ -9766,7 +9765,7 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f t="shared" si="2"/>
-        <v>41883</v>
+        <v>41852</v>
       </c>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -9787,7 +9786,7 @@
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f t="shared" si="2"/>
-        <v>41913</v>
+        <v>41883</v>
       </c>
       <c r="B346" s="20"/>
       <c r="C346" s="13">
@@ -9808,7 +9807,7 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f t="shared" si="2"/>
-        <v>41944</v>
+        <v>41913</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13">
@@ -9829,17 +9828,13 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f t="shared" si="2"/>
-        <v>41974</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>92</v>
-      </c>
+        <v>41944</v>
+      </c>
+      <c r="B348" s="20"/>
       <c r="C348" s="13">
         <v>1.25</v>
       </c>
-      <c r="D348" s="39">
-        <v>0.30199999999999999</v>
-      </c>
+      <c r="D348" s="39"/>
       <c r="E348" s="34"/>
       <c r="F348" s="20"/>
       <c r="G348" s="13">
@@ -9852,19 +9847,24 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349" s="23"/>
+      <c r="A349" s="23">
+        <f t="shared" si="2"/>
+        <v>41974</v>
+      </c>
       <c r="B349" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C349" s="13"/>
+        <v>92</v>
+      </c>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D349" s="39">
-        <v>5</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="E349" s="34"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="34"/>
@@ -9872,65 +9872,60 @@
       <c r="K349" s="20"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B350" s="20"/>
+      <c r="A350" s="23"/>
+      <c r="B350" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C350" s="13"/>
-      <c r="D350" s="39"/>
-      <c r="E350" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D350" s="39">
+        <v>5</v>
+      </c>
+      <c r="E350" s="34"/>
       <c r="F350" s="20"/>
       <c r="G350" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H350" s="39"/>
-      <c r="I350" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I350" s="34"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351" s="23">
-        <f>EDATE(A348,1)</f>
-        <v>42005</v>
-      </c>
-      <c r="B351" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C351" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D351" s="39">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="E351" s="34"/>
+      <c r="A351" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F351" s="20"/>
-      <c r="G351" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H351" s="39"/>
-      <c r="I351" s="34"/>
+      <c r="I351" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
-        <f t="shared" si="2"/>
-        <v>42036</v>
+        <f>EDATE(A349,1)</f>
+        <v>42005</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
       </c>
       <c r="D352" s="39">
-        <v>0.27300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E352" s="34"/>
       <c r="F352" s="20"/>
@@ -9946,16 +9941,16 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f t="shared" si="2"/>
-        <v>42064</v>
+        <v>42036</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C353" s="13">
         <v>1.25</v>
       </c>
       <c r="D353" s="39">
-        <v>0.14799999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E353" s="34"/>
       <c r="F353" s="20"/>
@@ -9971,16 +9966,16 @@
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f t="shared" si="2"/>
-        <v>42095</v>
+        <v>42064</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
       </c>
       <c r="D354" s="39">
-        <v>0.127</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E354" s="34"/>
       <c r="F354" s="20"/>
@@ -9996,16 +9991,16 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <f t="shared" si="2"/>
-        <v>42125</v>
+        <v>42095</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C355" s="13">
         <v>1.25</v>
       </c>
       <c r="D355" s="39">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="E355" s="34"/>
       <c r="F355" s="20"/>
@@ -10021,16 +10016,16 @@
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f t="shared" si="2"/>
-        <v>42156</v>
+        <v>42125</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
       </c>
       <c r="D356" s="39">
-        <v>0.14199999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="E356" s="34"/>
       <c r="F356" s="20"/>
@@ -10046,13 +10041,17 @@
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" si="2"/>
-        <v>42186</v>
-      </c>
-      <c r="B357" s="20"/>
+        <v>42156</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C357" s="13">
         <v>1.25</v>
       </c>
-      <c r="D357" s="39"/>
+      <c r="D357" s="39">
+        <v>0.14199999999999999</v>
+      </c>
       <c r="E357" s="34"/>
       <c r="F357" s="20"/>
       <c r="G357" s="13">
@@ -10066,18 +10065,14 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
-        <f t="shared" ref="A358:A388" si="3">EDATE(A357,1)</f>
-        <v>42217</v>
-      </c>
-      <c r="B358" s="20" t="s">
-        <v>89</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>42186</v>
+      </c>
+      <c r="B358" s="20"/>
       <c r="C358" s="13">
         <v>1.25</v>
       </c>
-      <c r="D358" s="39">
-        <v>0.129</v>
-      </c>
+      <c r="D358" s="39"/>
       <c r="E358" s="34"/>
       <c r="F358" s="20"/>
       <c r="G358" s="13">
@@ -10091,17 +10086,17 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
-        <f t="shared" si="3"/>
-        <v>42248</v>
+        <f t="shared" ref="A359:A389" si="3">EDATE(A358,1)</f>
+        <v>42217</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
       </c>
       <c r="D359" s="39">
-        <v>0.61899999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="E359" s="34"/>
       <c r="F359" s="20"/>
@@ -10117,13 +10112,17 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f t="shared" si="3"/>
-        <v>42278</v>
-      </c>
-      <c r="B360" s="20"/>
+        <v>42248</v>
+      </c>
+      <c r="B360" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C360" s="13">
         <v>1.25</v>
       </c>
-      <c r="D360" s="39"/>
+      <c r="D360" s="39">
+        <v>0.61899999999999999</v>
+      </c>
       <c r="E360" s="34"/>
       <c r="F360" s="20"/>
       <c r="G360" s="13">
@@ -10138,7 +10137,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="3"/>
-        <v>42309</v>
+        <v>42278</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13">
@@ -10159,17 +10158,13 @@
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" si="3"/>
-        <v>42339</v>
-      </c>
-      <c r="B362" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>42309</v>
+      </c>
+      <c r="B362" s="20"/>
       <c r="C362" s="13">
         <v>1.25</v>
       </c>
-      <c r="D362" s="39">
-        <v>5</v>
-      </c>
+      <c r="D362" s="39"/>
       <c r="E362" s="34"/>
       <c r="F362" s="20"/>
       <c r="G362" s="13">
@@ -10182,52 +10177,56 @@
       <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="39"/>
-      <c r="E363" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A363" s="23">
+        <f t="shared" si="3"/>
+        <v>42339</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D363" s="39">
+        <v>5</v>
+      </c>
+      <c r="E363" s="34"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39"/>
-      <c r="I363" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I363" s="34"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364" s="23">
-        <f>EDATE(A362,1)</f>
-        <v>42370</v>
+      <c r="A364" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C364" s="13"/>
       <c r="D364" s="39"/>
-      <c r="E364" s="34"/>
+      <c r="E364" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F364" s="20"/>
-      <c r="G364" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H364" s="39"/>
-      <c r="I364" s="34"/>
+      <c r="I364" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
-        <f t="shared" si="3"/>
-        <v>42401</v>
+        <f>EDATE(A363,1)</f>
+        <v>42370</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13">
@@ -10248,7 +10247,7 @@
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f t="shared" si="3"/>
-        <v>42430</v>
+        <v>42401</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13">
@@ -10269,7 +10268,7 @@
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="3"/>
-        <v>42461</v>
+        <v>42430</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -10290,7 +10289,7 @@
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f t="shared" si="3"/>
-        <v>42491</v>
+        <v>42461</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13">
@@ -10311,7 +10310,7 @@
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <f t="shared" si="3"/>
-        <v>42522</v>
+        <v>42491</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13">
@@ -10332,7 +10331,7 @@
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f t="shared" si="3"/>
-        <v>42552</v>
+        <v>42522</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13">
@@ -10353,7 +10352,7 @@
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <f t="shared" si="3"/>
-        <v>42583</v>
+        <v>42552</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13">
@@ -10374,7 +10373,7 @@
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f t="shared" si="3"/>
-        <v>42614</v>
+        <v>42583</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -10395,7 +10394,7 @@
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <f t="shared" si="3"/>
-        <v>42644</v>
+        <v>42614</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13">
@@ -10416,7 +10415,7 @@
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f t="shared" si="3"/>
-        <v>42675</v>
+        <v>42644</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -10437,17 +10436,13 @@
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f t="shared" si="3"/>
-        <v>42705</v>
-      </c>
-      <c r="B375" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>42675</v>
+      </c>
+      <c r="B375" s="20"/>
       <c r="C375" s="13">
         <v>1.25</v>
       </c>
-      <c r="D375" s="39">
-        <v>5</v>
-      </c>
+      <c r="D375" s="39"/>
       <c r="E375" s="34"/>
       <c r="F375" s="20"/>
       <c r="G375" s="13">
@@ -10460,52 +10455,56 @@
       <c r="K375" s="20"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B376" s="20"/>
-      <c r="C376" s="13"/>
-      <c r="D376" s="39"/>
-      <c r="E376" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A376" s="23">
+        <f t="shared" si="3"/>
+        <v>42705</v>
+      </c>
+      <c r="B376" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D376" s="39">
+        <v>5</v>
+      </c>
+      <c r="E376" s="34"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H376" s="39"/>
-      <c r="I376" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I376" s="34"/>
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377" s="23">
-        <f>EDATE(A375,1)</f>
-        <v>42736</v>
+      <c r="A377" s="48" t="s">
+        <v>77</v>
       </c>
       <c r="B377" s="20"/>
-      <c r="C377" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C377" s="13"/>
       <c r="D377" s="39"/>
-      <c r="E377" s="34"/>
+      <c r="E377" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F377" s="20"/>
-      <c r="G377" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H377" s="39"/>
-      <c r="I377" s="34"/>
+      <c r="I377" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
-        <f t="shared" si="3"/>
-        <v>42767</v>
+        <f>EDATE(A376,1)</f>
+        <v>42736</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13">
@@ -10526,7 +10525,7 @@
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f t="shared" si="3"/>
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -10547,7 +10546,7 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="3"/>
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -10568,7 +10567,7 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <f t="shared" si="3"/>
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -10589,7 +10588,7 @@
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f t="shared" si="3"/>
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13">
@@ -10610,7 +10609,7 @@
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f t="shared" si="3"/>
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13">
@@ -10631,17 +10630,13 @@
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f t="shared" si="3"/>
-        <v>42948</v>
-      </c>
-      <c r="B384" s="20" t="s">
-        <v>79</v>
-      </c>
+        <v>42917</v>
+      </c>
+      <c r="B384" s="20"/>
       <c r="C384" s="13">
         <v>1.25</v>
       </c>
-      <c r="D384" s="39">
-        <v>4</v>
-      </c>
+      <c r="D384" s="39"/>
       <c r="E384" s="34"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13">
@@ -10651,20 +10646,22 @@
       <c r="H384" s="39"/>
       <c r="I384" s="34"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f t="shared" si="3"/>
-        <v>42979</v>
-      </c>
-      <c r="B385" s="20"/>
+        <v>42948</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C385" s="13">
         <v>1.25</v>
       </c>
-      <c r="D385" s="39"/>
+      <c r="D385" s="39">
+        <v>4</v>
+      </c>
       <c r="E385" s="34"/>
       <c r="F385" s="20"/>
       <c r="G385" s="13">
@@ -10674,12 +10671,14 @@
       <c r="H385" s="39"/>
       <c r="I385" s="34"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
+      <c r="K385" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="3"/>
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -10700,7 +10699,7 @@
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f t="shared" si="3"/>
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13">
@@ -10721,17 +10720,13 @@
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="3"/>
-        <v>43070</v>
-      </c>
-      <c r="B388" s="20" t="s">
-        <v>78</v>
-      </c>
+        <v>43040</v>
+      </c>
+      <c r="B388" s="20"/>
       <c r="C388" s="13">
         <v>1.25</v>
       </c>
-      <c r="D388" s="39">
-        <v>1</v>
-      </c>
+      <c r="D388" s="39"/>
       <c r="E388" s="34"/>
       <c r="F388" s="20"/>
       <c r="G388" s="13">
@@ -10744,64 +10739,63 @@
       <c r="K388" s="20"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A389" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B389" s="20"/>
+      <c r="A389" s="23">
+        <f t="shared" si="3"/>
+        <v>43070</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C389" s="13">
         <v>1.25</v>
       </c>
-      <c r="D389" s="39"/>
-      <c r="E389" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="D389" s="39">
+        <v>1</v>
+      </c>
+      <c r="E389" s="34"/>
       <c r="F389" s="20"/>
       <c r="G389" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H389" s="39"/>
-      <c r="I389" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I389" s="34"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A390" s="40">
-        <v>43101</v>
+      <c r="A390" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13">
         <v>1.25</v>
       </c>
       <c r="D390" s="39"/>
-      <c r="E390" s="9"/>
+      <c r="E390" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F390" s="20"/>
       <c r="G390" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H390" s="39"/>
-      <c r="I390" s="9"/>
+      <c r="I390" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J390" s="11"/>
-      <c r="K390" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="K390" s="20"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
-        <v>43132</v>
-      </c>
-      <c r="B391" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>43101</v>
+      </c>
+      <c r="B391" s="20"/>
       <c r="C391" s="13">
         <v>1.25</v>
       </c>
-      <c r="D391" s="39">
-        <v>8</v>
-      </c>
+      <c r="D391" s="39"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13">
@@ -10812,36 +10806,40 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="40"/>
+      <c r="A392" s="40">
+        <v>43132</v>
+      </c>
       <c r="B392" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
       </c>
-      <c r="D392" s="39"/>
+      <c r="D392" s="39">
+        <v>8</v>
+      </c>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
       <c r="G392" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H392" s="39">
-        <v>4</v>
-      </c>
+      <c r="H392" s="39"/>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
+      <c r="K392" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393" s="40">
-        <v>43160</v>
-      </c>
-      <c r="B393" s="20"/>
+      <c r="A393" s="40"/>
+      <c r="B393" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C393" s="13">
         <v>1.25</v>
       </c>
@@ -10852,14 +10850,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H393" s="39"/>
+      <c r="H393" s="39">
+        <v>4</v>
+      </c>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -10878,48 +10878,48 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A395" s="41">
+      <c r="A395" s="40">
+        <v>43191</v>
+      </c>
+      <c r="B395" s="20"/>
+      <c r="C395" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D395" s="39"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="20"/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H395" s="39"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="20"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="41">
         <v>43221</v>
       </c>
-      <c r="B395" s="15"/>
-      <c r="C395" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D395" s="43"/>
-      <c r="E395" s="9"/>
-      <c r="F395" s="15"/>
-      <c r="G395" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H395" s="43"/>
-      <c r="I395" s="9"/>
-      <c r="J395" s="12"/>
-      <c r="K395" s="15"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B396" s="20"/>
+      <c r="B396" s="15"/>
       <c r="C396" s="13">
         <v>1.25</v>
       </c>
-      <c r="D396" s="39"/>
+      <c r="D396" s="43"/>
       <c r="E396" s="9"/>
-      <c r="F396" s="20"/>
-      <c r="G396" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H396" s="39"/>
+      <c r="F396" s="15"/>
+      <c r="G396" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H396" s="43"/>
       <c r="I396" s="9"/>
-      <c r="J396" s="11"/>
-      <c r="K396" s="20"/>
+      <c r="J396" s="12"/>
+      <c r="K396" s="15"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13">
@@ -10939,7 +10939,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -10959,7 +10959,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13">
@@ -10999,7 +10999,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13">
@@ -11019,17 +11019,13 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
-        <v>43435</v>
-      </c>
-      <c r="B402" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>43405</v>
+      </c>
+      <c r="B402" s="20"/>
       <c r="C402" s="13">
         <v>1.25</v>
       </c>
-      <c r="D402" s="39">
-        <v>5</v>
-      </c>
+      <c r="D402" s="39"/>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="13">
@@ -11042,17 +11038,23 @@
       <c r="K402" s="20"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B403" s="20"/>
-      <c r="C403" s="13"/>
-      <c r="D403" s="39"/>
+      <c r="A403" s="40">
+        <v>43435</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C403" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D403" s="39">
+        <v>5</v>
+      </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G403" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
@@ -11060,19 +11062,17 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404" s="40">
-        <v>43466</v>
+      <c r="A404" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="B404" s="20"/>
-      <c r="C404" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C404" s="13"/>
       <c r="D404" s="39"/>
       <c r="E404" s="9"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G404" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H404" s="39"/>
       <c r="I404" s="9"/>
@@ -11081,7 +11081,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13">
@@ -11100,15 +11100,19 @@
       <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A406" s="40"/>
+      <c r="A406" s="40">
+        <v>43497</v>
+      </c>
       <c r="B406" s="20"/>
-      <c r="C406" s="13"/>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
@@ -11116,19 +11120,15 @@
       <c r="K406" s="20"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="40">
-        <v>43525</v>
-      </c>
+      <c r="A407" s="40"/>
       <c r="B407" s="20"/>
-      <c r="C407" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C407" s="13"/>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13">
@@ -11156,8 +11156,8 @@
       <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="41">
-        <v>43586</v>
+      <c r="A409" s="40">
+        <v>43556</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -11176,8 +11176,8 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="40">
-        <v>43617</v>
+      <c r="A410" s="41">
+        <v>43586</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
@@ -11197,7 +11197,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13">
@@ -11217,7 +11217,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13">
@@ -11237,7 +11237,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -11257,7 +11257,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13">
@@ -11277,7 +11277,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13">
@@ -11297,17 +11297,13 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B416" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>43770</v>
+      </c>
+      <c r="B416" s="20"/>
       <c r="C416" s="13">
         <v>1.25</v>
       </c>
-      <c r="D416" s="39">
-        <v>5</v>
-      </c>
+      <c r="D416" s="39"/>
       <c r="E416" s="9"/>
       <c r="F416" s="20"/>
       <c r="G416" s="13">
@@ -11320,17 +11316,23 @@
       <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
-      <c r="D417" s="39"/>
+      <c r="A417" s="40">
+        <v>43800</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="39">
+        <v>5</v>
+      </c>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
@@ -11338,19 +11340,17 @@
       <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A418" s="40">
-        <v>43831</v>
+      <c r="A418" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C418" s="13"/>
       <c r="D418" s="39"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G418" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -11379,7 +11379,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -11399,7 +11399,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13">
@@ -11419,7 +11419,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -11439,7 +11439,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13">
@@ -11459,7 +11459,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13">
@@ -11479,7 +11479,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -11499,7 +11499,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13">
@@ -11519,7 +11519,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -11539,7 +11539,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -11559,17 +11559,13 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B429" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B429" s="20"/>
       <c r="C429" s="13">
         <v>1.25</v>
       </c>
-      <c r="D429" s="39">
-        <v>5</v>
-      </c>
+      <c r="D429" s="39"/>
       <c r="E429" s="9"/>
       <c r="F429" s="20"/>
       <c r="G429" s="13">
@@ -11582,17 +11578,23 @@
       <c r="K429" s="20"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A430" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B430" s="20"/>
-      <c r="C430" s="13"/>
-      <c r="D430" s="39"/>
+      <c r="A430" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B430" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C430" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D430" s="39">
+        <v>5</v>
+      </c>
       <c r="E430" s="9"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G430" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H430" s="39"/>
       <c r="I430" s="9"/>
@@ -11600,19 +11602,17 @@
       <c r="K430" s="20"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431" s="40">
-        <v>44197</v>
+      <c r="A431" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B431" s="20"/>
-      <c r="C431" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C431" s="13"/>
       <c r="D431" s="39"/>
       <c r="E431" s="9"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G431" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H431" s="39"/>
       <c r="I431" s="9"/>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -11641,7 +11641,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13">
@@ -11661,7 +11661,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -11681,7 +11681,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13">
@@ -11701,7 +11701,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13">
@@ -11721,7 +11721,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -11741,11 +11741,9 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
-        <v>44409</v>
-      </c>
-      <c r="B438" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>44378</v>
+      </c>
+      <c r="B438" s="20"/>
       <c r="C438" s="13">
         <v>1.25</v>
       </c>
@@ -11756,20 +11754,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H438" s="39">
-        <v>20</v>
-      </c>
+      <c r="H438" s="39"/>
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
-      <c r="K438" s="49">
-        <v>11390</v>
-      </c>
+      <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
-        <v>44440</v>
-      </c>
-      <c r="B439" s="20"/>
+        <v>44409</v>
+      </c>
+      <c r="B439" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C439" s="13">
         <v>1.25</v>
       </c>
@@ -11780,14 +11776,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H439" s="39"/>
+      <c r="H439" s="39">
+        <v>20</v>
+      </c>
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
-      <c r="K439" s="20"/>
+      <c r="K439" s="49">
+        <v>11390</v>
+      </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13">
@@ -11807,7 +11807,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -11827,17 +11827,13 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
-        <v>44531</v>
-      </c>
-      <c r="B442" s="20" t="s">
-        <v>52</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B442" s="20"/>
       <c r="C442" s="13">
         <v>1.25</v>
       </c>
-      <c r="D442" s="39">
-        <v>5</v>
-      </c>
+      <c r="D442" s="39"/>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
       <c r="G442" s="13">
@@ -11850,17 +11846,23 @@
       <c r="K442" s="20"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A443" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B443" s="20"/>
-      <c r="C443" s="13"/>
-      <c r="D443" s="39"/>
+      <c r="A443" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C443" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D443" s="39">
+        <v>5</v>
+      </c>
       <c r="E443" s="9"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G443" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H443" s="39"/>
       <c r="I443" s="9"/>
@@ -11868,19 +11870,17 @@
       <c r="K443" s="20"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A444" s="40">
-        <v>44562</v>
+      <c r="A444" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B444" s="20"/>
-      <c r="C444" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C444" s="13"/>
       <c r="D444" s="39"/>
       <c r="E444" s="9"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H444" s="39"/>
       <c r="I444" s="9"/>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -11909,7 +11909,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13">
@@ -11929,7 +11929,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13">
@@ -11949,7 +11949,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -11969,7 +11969,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -11989,7 +11989,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13">
@@ -12009,17 +12009,13 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B451" s="20" t="s">
-        <v>58</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B451" s="20"/>
       <c r="C451" s="13">
         <v>1.25</v>
       </c>
-      <c r="D451" s="39">
-        <v>1</v>
-      </c>
+      <c r="D451" s="39"/>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13">
@@ -12029,19 +12025,21 @@
       <c r="H451" s="39"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="49">
-        <v>44873</v>
-      </c>
+      <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
-        <v>44834</v>
-      </c>
-      <c r="B452" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B452" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C452" s="13">
         <v>1.25</v>
       </c>
-      <c r="D452" s="39"/>
+      <c r="D452" s="39">
+        <v>1</v>
+      </c>
       <c r="E452" s="9"/>
       <c r="F452" s="20"/>
       <c r="G452" s="13">
@@ -12051,11 +12049,13 @@
       <c r="H452" s="39"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
-      <c r="K452" s="20"/>
+      <c r="K452" s="49">
+        <v>44873</v>
+      </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
-        <v>44865</v>
+        <v>44834</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -12075,7 +12075,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
-        <v>44895</v>
+        <v>44865</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13">
@@ -12095,17 +12095,13 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <v>44926</v>
-      </c>
-      <c r="B455" s="20" t="s">
-        <v>97</v>
-      </c>
+        <v>44895</v>
+      </c>
+      <c r="B455" s="20"/>
       <c r="C455" s="13">
         <v>1.25</v>
       </c>
-      <c r="D455" s="39">
-        <v>4</v>
-      </c>
+      <c r="D455" s="39"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
       <c r="G455" s="13">
@@ -12118,17 +12114,23 @@
       <c r="K455" s="20"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A456" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
-      <c r="D456" s="39"/>
+      <c r="A456" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D456" s="39">
+        <v>4</v>
+      </c>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
@@ -12136,19 +12138,17 @@
       <c r="K456" s="20"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457" s="40">
-        <v>44957</v>
+      <c r="A457" s="48" t="s">
+        <v>307</v>
       </c>
       <c r="B457" s="20"/>
-      <c r="C457" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C457" s="13"/>
       <c r="D457" s="39"/>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G457" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
@@ -12157,7 +12157,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13">
@@ -12177,7 +12177,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13">
@@ -12197,7 +12197,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -12217,7 +12217,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -12237,16 +12237,18 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B462" s="20"/>
-      <c r="C462" s="13"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="39"/>
       <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
@@ -12255,7 +12257,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12273,7 +12275,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12291,7 +12293,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12309,7 +12311,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12327,7 +12329,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12345,7 +12347,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12363,7 +12365,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12381,7 +12383,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12399,7 +12401,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12417,7 +12419,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12435,7 +12437,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12453,7 +12455,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12471,7 +12473,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12489,7 +12491,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12507,7 +12509,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12525,7 +12527,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12543,7 +12545,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12561,7 +12563,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12579,7 +12581,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12597,7 +12599,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12615,7 +12617,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12633,7 +12635,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12651,7 +12653,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12669,7 +12671,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12687,7 +12689,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12705,7 +12707,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12723,7 +12725,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12741,7 +12743,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12759,7 +12761,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12777,7 +12779,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12795,7 +12797,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12813,7 +12815,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12831,7 +12833,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12849,7 +12851,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12867,7 +12869,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12885,7 +12887,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12903,7 +12905,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12921,7 +12923,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -12939,7 +12941,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -12957,7 +12959,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -12975,7 +12977,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -12993,7 +12995,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -13011,7 +13013,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -13029,7 +13031,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -13047,7 +13049,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -13065,7 +13067,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -13083,7 +13085,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -13101,21 +13103,39 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
+        <v>46538</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="39"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="39"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40">
         <v>46568</v>
       </c>
-      <c r="B510" s="15"/>
-      <c r="C510" s="42"/>
-      <c r="D510" s="43"/>
-      <c r="E510" s="9"/>
-      <c r="F510" s="15"/>
-      <c r="G510" s="42" t="str">
+      <c r="B511" s="15"/>
+      <c r="C511" s="42"/>
+      <c r="D511" s="43"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="15"/>
+      <c r="G511" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H510" s="43"/>
-      <c r="I510" s="9"/>
-      <c r="J510" s="12"/>
-      <c r="K510" s="15"/>
+      <c r="H511" s="43"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="12"/>
+      <c r="K511" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
